--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_SO_SANH_DT.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_SO_SANH_DT.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C238753B-725C-4F08-A5C2-115A5236DB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABFF8FA-6008-46EE-B123-8BBA83FFCF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A0F55D67-6143-40CE-B307-823445AA08AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A0F55D67-6143-40CE-B307-823445AA08AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TH so sánh doanh thu" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +116,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -126,7 +133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,11 +217,11 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -222,6 +229,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -554,39 +566,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" customWidth="1"/>
-    <col min="14" max="14" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -595,66 +596,66 @@
     <row r="3" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="8"/>
       <c r="C7" s="6"/>
@@ -670,7 +671,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="7"/>
@@ -704,6 +705,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b0f7b76c-643b-46c3-8d43-22981daf027d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004405EEB3F5F6114D9B894F629996D958" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a383766067435dc81738a790f7f22a84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b0f7b76c-643b-46c3-8d43-22981daf027d" xmlns:ns4="3212614d-8050-4a6f-a80a-732ecad958bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e36ef7e48bc614aea0392d7c23b7cf8" ns3:_="" ns4:_="">
     <xsd:import namespace="b0f7b76c-643b-46c3-8d43-22981daf027d"/>
@@ -930,14 +939,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b0f7b76c-643b-46c3-8d43-22981daf027d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3156E1A-E313-469B-A38D-CDADA29B3C22}">
   <ds:schemaRefs>
@@ -947,6 +948,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB75D2E-074E-4A69-8B90-CCD6E9127038}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b0f7b76c-643b-46c3-8d43-22981daf027d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3212614d-8050-4a6f-a80a-732ecad958bc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14BD5EE8-C758-4095-9F63-0880C8DCED34}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -963,21 +981,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB75D2E-074E-4A69-8B90-CCD6E9127038}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b0f7b76c-643b-46c3-8d43-22981daf027d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3212614d-8050-4a6f-a80a-732ecad958bc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>